--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H2">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I2">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J2">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N2">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O2">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P2">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q2">
-        <v>21724.54965764665</v>
+        <v>17223.00085197482</v>
       </c>
       <c r="R2">
-        <v>86898.1986305866</v>
+        <v>68892.00340789929</v>
       </c>
       <c r="S2">
-        <v>0.2428666537081246</v>
+        <v>0.5381948364517336</v>
       </c>
       <c r="T2">
-        <v>0.1561986771186331</v>
+        <v>0.4350229707304925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H3">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I3">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J3">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N3">
         <v>1.634114</v>
       </c>
       <c r="O3">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P3">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q3">
-        <v>241.21922336409</v>
+        <v>208.663062648496</v>
       </c>
       <c r="R3">
-        <v>1447.31534018454</v>
+        <v>1251.978375890976</v>
       </c>
       <c r="S3">
-        <v>0.00269667756117967</v>
+        <v>0.006520430663669651</v>
       </c>
       <c r="T3">
-        <v>0.00260153541814338</v>
+        <v>0.007905697692454973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H4">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I4">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J4">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N4">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O4">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P4">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q4">
-        <v>5432.323147820761</v>
+        <v>4025.560456956713</v>
       </c>
       <c r="R4">
-        <v>32593.93888692456</v>
+        <v>24153.36274174027</v>
       </c>
       <c r="S4">
-        <v>0.06072991917271038</v>
+        <v>0.125793168703813</v>
       </c>
       <c r="T4">
-        <v>0.05858729198594924</v>
+        <v>0.1525179569946759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H5">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I5">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J5">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N5">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O5">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P5">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q5">
-        <v>52.5002698303875</v>
+        <v>130.139014727628</v>
       </c>
       <c r="R5">
-        <v>210.00107932155</v>
+        <v>520.5560589105121</v>
       </c>
       <c r="S5">
-        <v>0.0005869196394592168</v>
+        <v>0.004066663315486893</v>
       </c>
       <c r="T5">
-        <v>0.0003774749223853944</v>
+        <v>0.003287084595845017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H6">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I6">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J6">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N6">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O6">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P6">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q6">
-        <v>15997.6115859522</v>
+        <v>2321.060885753745</v>
       </c>
       <c r="R6">
-        <v>95985.66951571319</v>
+        <v>13926.36531452247</v>
       </c>
       <c r="S6">
-        <v>0.1788431269890552</v>
+        <v>0.0725299263780457</v>
       </c>
       <c r="T6">
-        <v>0.1725333187220236</v>
+        <v>0.08793892630370213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="H7">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="I7">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="J7">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N7">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O7">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P7">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q7">
-        <v>9829.24678165578</v>
+        <v>6880.204525586248</v>
       </c>
       <c r="R7">
-        <v>58975.48068993468</v>
+        <v>41281.22715351749</v>
       </c>
       <c r="S7">
-        <v>0.1098847300382055</v>
+        <v>0.2149968278598667</v>
       </c>
       <c r="T7">
-        <v>0.1060078599024131</v>
+        <v>0.2606729545284833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H8">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I8">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J8">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N8">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O8">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P8">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q8">
-        <v>125.9863373048908</v>
+        <v>115.464326928495</v>
       </c>
       <c r="R8">
-        <v>755.918023829345</v>
+        <v>692.7859615709699</v>
       </c>
       <c r="S8">
-        <v>0.001408447154779662</v>
+        <v>0.003608099719751538</v>
       </c>
       <c r="T8">
-        <v>0.001358755384955878</v>
+        <v>0.004374641354215975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H9">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I9">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J9">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N9">
         <v>1.634114</v>
       </c>
       <c r="O9">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P9">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q9">
         <v>1.398893275952222</v>
@@ -1013,10 +1013,10 @@
         <v>12.59003948357</v>
       </c>
       <c r="S9">
-        <v>1.563873747347063E-05</v>
+        <v>4.371347039550368E-05</v>
       </c>
       <c r="T9">
-        <v>2.263047500633464E-05</v>
+        <v>7.950061120052749E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H10">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I10">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J10">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N10">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O10">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P10">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q10">
-        <v>31.50346070394222</v>
+        <v>26.98766798349056</v>
       </c>
       <c r="R10">
-        <v>283.53114633548</v>
+        <v>242.889011851415</v>
       </c>
       <c r="S10">
-        <v>0.0003521886622261365</v>
+        <v>0.0008433271113101622</v>
       </c>
       <c r="T10">
-        <v>0.0005096445113643964</v>
+        <v>0.001533738231820399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H11">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I11">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J11">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N11">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O11">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P11">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q11">
-        <v>0.3044627763375</v>
+        <v>0.8724619984525001</v>
       </c>
       <c r="R11">
-        <v>1.826776658025</v>
+        <v>5.234771990715</v>
       </c>
       <c r="S11">
-        <v>3.403700276095108E-06</v>
+        <v>2.72632247192658E-05</v>
       </c>
       <c r="T11">
-        <v>3.283613491088734E-06</v>
+        <v>3.305530322604176E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H12">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I12">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J12">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N12">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O12">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P12">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q12">
-        <v>92.77432771228887</v>
+        <v>15.56057131024778</v>
       </c>
       <c r="R12">
-        <v>834.9689494105999</v>
+        <v>140.04514179223</v>
       </c>
       <c r="S12">
-        <v>0.001037158002194708</v>
+        <v>0.0004862462240692563</v>
       </c>
       <c r="T12">
-        <v>0.001500848664165114</v>
+        <v>0.0008843240231832685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>2.568168333333333</v>
       </c>
       <c r="H13">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="I13">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="J13">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N13">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O13">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P13">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q13">
-        <v>57.00236920910444</v>
+        <v>46.12542213200388</v>
       </c>
       <c r="R13">
-        <v>513.0213228819399</v>
+        <v>415.128799188035</v>
       </c>
       <c r="S13">
-        <v>0.0006372502482866153</v>
+        <v>0.001441355326749263</v>
       </c>
       <c r="T13">
-        <v>0.000922150898759882</v>
+        <v>0.00262135740761248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H14">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I14">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J14">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N14">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O14">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P14">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q14">
-        <v>190.8853250394241</v>
+        <v>171.759058242957</v>
       </c>
       <c r="R14">
-        <v>1145.311950236545</v>
+        <v>1030.554349457742</v>
       </c>
       <c r="S14">
-        <v>0.002133976577875567</v>
+        <v>0.005367231822993999</v>
       </c>
       <c r="T14">
-        <v>0.002058687226367221</v>
+        <v>0.006507501486724544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H15">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I15">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J15">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N15">
         <v>1.634114</v>
       </c>
       <c r="O15">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P15">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q15">
-        <v>2.119501236307777</v>
+        <v>2.080924888678</v>
       </c>
       <c r="R15">
-        <v>19.07551112677</v>
+        <v>18.728323998102</v>
       </c>
       <c r="S15">
-        <v>2.369467634101764E-05</v>
+        <v>6.502601026127124E-05</v>
       </c>
       <c r="T15">
-        <v>3.428804797242927E-05</v>
+        <v>0.0001182612021633171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H16">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I16">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J16">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N16">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O16">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P16">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q16">
-        <v>47.73174984669778</v>
+        <v>40.145528582941</v>
       </c>
       <c r="R16">
-        <v>429.58574862028</v>
+        <v>361.309757246469</v>
       </c>
       <c r="S16">
-        <v>0.0005336106176461266</v>
+        <v>0.001254491965462972</v>
       </c>
       <c r="T16">
-        <v>0.0007721762556754218</v>
+        <v>0.002281513618070362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H17">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I17">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J17">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N17">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O17">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P17">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q17">
-        <v>0.4612998303375</v>
+        <v>1.2978315917415</v>
       </c>
       <c r="R17">
-        <v>2.767798982025</v>
+        <v>7.786989550449</v>
       </c>
       <c r="S17">
-        <v>5.157038830066618E-06</v>
+        <v>4.055543324084083E-05</v>
       </c>
       <c r="T17">
-        <v>4.975092077115087E-06</v>
+        <v>4.917144457574603E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H18">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I18">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J18">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N18">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O18">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P18">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q18">
-        <v>140.5649063185111</v>
+        <v>23.147141156642</v>
       </c>
       <c r="R18">
-        <v>1265.0841568666</v>
+        <v>208.324270409778</v>
       </c>
       <c r="S18">
-        <v>0.001571426287971712</v>
+        <v>0.0007233159863483205</v>
       </c>
       <c r="T18">
-        <v>0.00227397661701069</v>
+        <v>0.001315476956771629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="H19">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="I19">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="J19">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N19">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O19">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P19">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q19">
-        <v>86.36583940181555</v>
+        <v>68.61391112908899</v>
       </c>
       <c r="R19">
-        <v>777.2925546163399</v>
+        <v>617.5252001618011</v>
       </c>
       <c r="S19">
-        <v>0.0009655151771042251</v>
+        <v>0.002144089348645631</v>
       </c>
       <c r="T19">
-        <v>0.00139717589867853</v>
+        <v>0.003899402452919901</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H20">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I20">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J20">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N20">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O20">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P20">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q20">
-        <v>154.222286305568</v>
+        <v>120.750280234983</v>
       </c>
       <c r="R20">
-        <v>616.889145222272</v>
+        <v>483.0011209399319</v>
       </c>
       <c r="S20">
-        <v>0.001724107113496182</v>
+        <v>0.003773278413042412</v>
       </c>
       <c r="T20">
-        <v>0.001108852311452256</v>
+        <v>0.003049941533175891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H21">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I21">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J21">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N21">
         <v>1.634114</v>
       </c>
       <c r="O21">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P21">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q21">
-        <v>1.712412027605333</v>
+        <v>1.462934566748667</v>
       </c>
       <c r="R21">
-        <v>10.274472165632</v>
+        <v>8.777607400492</v>
       </c>
       <c r="S21">
-        <v>1.914367779622382E-05</v>
+        <v>4.571467171474988E-05</v>
       </c>
       <c r="T21">
-        <v>1.846826500036394E-05</v>
+        <v>5.542676447743067E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H22">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I22">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J22">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N22">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O22">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P22">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q22">
-        <v>38.56398908194134</v>
+        <v>28.22316258694567</v>
       </c>
       <c r="R22">
-        <v>231.383934491648</v>
+        <v>169.338975521674</v>
       </c>
       <c r="S22">
-        <v>0.0004311208807346261</v>
+        <v>0.0008819346003161956</v>
       </c>
       <c r="T22">
-        <v>0.0004159103991066923</v>
+        <v>0.001069301813676826</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H23">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I23">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J23">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N23">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O23">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P23">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q23">
-        <v>0.37269871056</v>
+        <v>0.9124032816884999</v>
       </c>
       <c r="R23">
-        <v>1.49079484224</v>
+        <v>3.649613126754</v>
       </c>
       <c r="S23">
-        <v>4.166534639450169E-06</v>
+        <v>2.851133430154029E-05</v>
       </c>
       <c r="T23">
-        <v>2.679689405336037E-06</v>
+        <v>2.304571598850443E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H24">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I24">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J24">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N24">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O24">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P24">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q24">
-        <v>113.5668298350933</v>
+        <v>16.27293378233133</v>
       </c>
       <c r="R24">
-        <v>681.4009790105599</v>
+        <v>97.637602693988</v>
       </c>
       <c r="S24">
-        <v>0.001269604957016032</v>
+        <v>0.0005085065611297053</v>
       </c>
       <c r="T24">
-        <v>0.001224811712855555</v>
+        <v>0.0006165388996957516</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="H25">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="I25">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="J25">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N25">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O25">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P25">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q25">
-        <v>69.77769091729066</v>
+        <v>48.23704252695766</v>
       </c>
       <c r="R25">
-        <v>418.666145503744</v>
+        <v>289.422255161746</v>
       </c>
       <c r="S25">
-        <v>0.0007800702230251875</v>
+        <v>0.00150734052891454</v>
       </c>
       <c r="T25">
-        <v>0.0007525483739892405</v>
+        <v>0.001827575378966912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H26">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I26">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J26">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N26">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O26">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P26">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q26">
-        <v>13981.52671700489</v>
+        <v>223.668710690019</v>
       </c>
       <c r="R26">
-        <v>83889.16030202933</v>
+        <v>1342.012264140114</v>
       </c>
       <c r="S26">
-        <v>0.156304579887782</v>
+        <v>0.006989336306941085</v>
       </c>
       <c r="T26">
-        <v>0.1507899596339594</v>
+        <v>0.008474222449975179</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H27">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I27">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J27">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N27">
         <v>1.634114</v>
       </c>
       <c r="O27">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P27">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q27">
-        <v>155.2443235541638</v>
+        <v>2.709829639581556</v>
       </c>
       <c r="R27">
-        <v>1397.198911987474</v>
+        <v>24.388466756234</v>
       </c>
       <c r="S27">
-        <v>0.001735532840171448</v>
+        <v>8.467840954205322E-05</v>
       </c>
       <c r="T27">
-        <v>0.002511451619978923</v>
+        <v>0.0001540025363617494</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H28">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I28">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J28">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N28">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O28">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P28">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q28">
-        <v>3496.144795799082</v>
+        <v>52.27845745063589</v>
       </c>
       <c r="R28">
-        <v>31465.30316219174</v>
+        <v>470.506117055723</v>
       </c>
       <c r="S28">
-        <v>0.03908467612979635</v>
+        <v>0.001633629127665506</v>
       </c>
       <c r="T28">
-        <v>0.0565585801146994</v>
+        <v>0.002971041030358254</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H29">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I29">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J29">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N29">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O29">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P29">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q29">
-        <v>33.7882228562175</v>
+        <v>1.6900670147305</v>
       </c>
       <c r="R29">
-        <v>202.729337137305</v>
+        <v>10.140402088383</v>
       </c>
       <c r="S29">
-        <v>0.0003777308505424204</v>
+        <v>5.281224499742484E-05</v>
       </c>
       <c r="T29">
-        <v>0.0003644040356762764</v>
+        <v>6.403221887410309E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H30">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I30">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J30">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N30">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O30">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P30">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q30">
-        <v>10295.77309182699</v>
+        <v>30.14275504085845</v>
       </c>
       <c r="R30">
-        <v>92661.95782644291</v>
+        <v>271.284795367726</v>
       </c>
       <c r="S30">
-        <v>0.1151001975900588</v>
+        <v>0.0009419191962450234</v>
       </c>
       <c r="T30">
-        <v>0.1665589788948569</v>
+        <v>0.001713045226688096</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="H31">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="I31">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="J31">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N31">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O31">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P31">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q31">
-        <v>6325.925216009367</v>
+        <v>89.35065896748522</v>
       </c>
       <c r="R31">
-        <v>56933.32694408431</v>
+        <v>804.155930707367</v>
       </c>
       <c r="S31">
-        <v>0.07071982218417451</v>
+        <v>0.002792083894273654</v>
       </c>
       <c r="T31">
-        <v>0.1023371081653062</v>
+        <v>0.005077894161904298</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H32">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I32">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J32">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>49.0568845</v>
+        <v>44.95979699999999</v>
       </c>
       <c r="N32">
-        <v>98.113769</v>
+        <v>89.91959399999999</v>
       </c>
       <c r="O32">
-        <v>0.4077625596939558</v>
+        <v>0.5593948650707924</v>
       </c>
       <c r="P32">
-        <v>0.3147224240097881</v>
+        <v>0.459201979651551</v>
       </c>
       <c r="Q32">
-        <v>297.4046805048973</v>
+        <v>46.78871658216299</v>
       </c>
       <c r="R32">
-        <v>1784.428083029384</v>
+        <v>280.7322994929779</v>
       </c>
       <c r="S32">
-        <v>0.003324795251897651</v>
+        <v>0.001462082356329697</v>
       </c>
       <c r="T32">
-        <v>0.003207492334420175</v>
+        <v>0.001772702096966954</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H33">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I33">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J33">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.5447046666666666</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N33">
         <v>1.634114</v>
       </c>
       <c r="O33">
-        <v>0.004527604462065724</v>
+        <v>0.006777276897256253</v>
       </c>
       <c r="P33">
-        <v>0.005241795564782867</v>
+        <v>0.008345104224740102</v>
       </c>
       <c r="Q33">
-        <v>3.302242264478222</v>
+        <v>0.566862707802</v>
       </c>
       <c r="R33">
-        <v>29.72018038030399</v>
+        <v>5.101764370218</v>
       </c>
       <c r="S33">
-        <v>3.69169691038946E-05</v>
+        <v>1.771367167302339E-05</v>
       </c>
       <c r="T33">
-        <v>5.342173868143511E-05</v>
+        <v>3.221541808210408E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H34">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I34">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J34">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.26689866666667</v>
+        <v>10.50852766666667</v>
       </c>
       <c r="N34">
-        <v>36.800696</v>
+        <v>31.525583</v>
       </c>
       <c r="O34">
-        <v>0.101962895744559</v>
+        <v>0.1307482864343825</v>
       </c>
       <c r="P34">
-        <v>0.1180466754912586</v>
+        <v>0.1609950565754254</v>
       </c>
       <c r="Q34">
-        <v>74.36740257620622</v>
+        <v>10.936004063619</v>
       </c>
       <c r="R34">
-        <v>669.306623185856</v>
+        <v>98.424036572571</v>
       </c>
       <c r="S34">
-        <v>0.0008313802814453691</v>
+        <v>0.0003417349258146298</v>
       </c>
       <c r="T34">
-        <v>0.001203072224463492</v>
+        <v>0.0006215048868237301</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H35">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I35">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J35">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2607,28 +2607,28 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.1185525</v>
+        <v>0.3397215</v>
       </c>
       <c r="N35">
-        <v>0.237105</v>
+        <v>0.679443</v>
       </c>
       <c r="O35">
-        <v>0.0009854125746227868</v>
+        <v>0.004226853218535378</v>
       </c>
       <c r="P35">
-        <v>0.0007605686857758039</v>
+        <v>0.003469784023495355</v>
       </c>
       <c r="Q35">
-        <v>0.7187180503799999</v>
+        <v>0.3535410308985</v>
       </c>
       <c r="R35">
-        <v>4.31230830228</v>
+        <v>2.121246185391</v>
       </c>
       <c r="S35">
-        <v>8.034810875537688E-06</v>
+        <v>1.104766578941313E-05</v>
       </c>
       <c r="T35">
-        <v>7.751332740593175E-06</v>
+        <v>1.339474498594286E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H36">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I36">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J36">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>36.12470666666666</v>
+        <v>6.059015333333334</v>
       </c>
       <c r="N36">
-        <v>108.37412</v>
+        <v>18.177046</v>
       </c>
       <c r="O36">
-        <v>0.3002698399771658</v>
+        <v>0.07538695214419813</v>
       </c>
       <c r="P36">
-        <v>0.347634853843273</v>
+        <v>0.09282665919751938</v>
       </c>
       <c r="Q36">
-        <v>219.0040593493688</v>
+        <v>6.305490018078</v>
       </c>
       <c r="R36">
-        <v>1971.03653414432</v>
+        <v>56.749410162702</v>
       </c>
       <c r="S36">
-        <v>0.00244832615086938</v>
+        <v>0.0001970377983601164</v>
       </c>
       <c r="T36">
-        <v>0.003542919232361078</v>
+        <v>0.0003583477874784976</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="H37">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="I37">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="J37">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.19572933333333</v>
+        <v>17.96043566666667</v>
       </c>
       <c r="N37">
-        <v>66.587188</v>
+        <v>53.881307</v>
       </c>
       <c r="O37">
-        <v>0.1844916875476309</v>
+        <v>0.2234657662348353</v>
       </c>
       <c r="P37">
-        <v>0.2135936824051217</v>
+        <v>0.2751614163272688</v>
       </c>
       <c r="Q37">
-        <v>134.5603957167964</v>
+        <v>18.691048229151</v>
       </c>
       <c r="R37">
-        <v>1211.043561451168</v>
+        <v>168.219434062359</v>
       </c>
       <c r="S37">
-        <v>0.0015042996768348</v>
+        <v>0.0005840692763854768</v>
       </c>
       <c r="T37">
-        <v>0.002176839165974707</v>
+        <v>0.001062232397381823</v>
       </c>
     </row>
   </sheetData>
